--- a/data/predictions/abortion/leveled/other.xlsx
+++ b/data/predictions/abortion/leveled/other.xlsx
@@ -859,13 +859,13 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.6028394771769838</v>
+        <v>0.559485558177768</v>
       </c>
       <c r="D34">
         <v>0.3365333753052549</v>
       </c>
       <c r="F34">
-        <v>0.05016646889683411</v>
+        <v>-1.178015819656986e-05</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -873,13 +873,13 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.6150774889947639</v>
+        <v>0.6009948446638373</v>
       </c>
       <c r="D35">
         <v>0.3246458246378403</v>
       </c>
       <c r="F35">
-        <v>0.06232348708087321</v>
+        <v>0.04992040311014311</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -887,13 +887,13 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.6206869567963729</v>
+        <v>0.6467452454673535</v>
       </c>
       <c r="D36">
         <v>0.3186384177663459</v>
       </c>
       <c r="F36">
-        <v>0.05867825181867619</v>
+        <v>0.07953940354927624</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -901,13 +901,13 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.6276998829413163</v>
+        <v>0.6186930620821502</v>
       </c>
       <c r="D37">
         <v>0.3121318539878504</v>
       </c>
       <c r="F37">
-        <v>0.05913131382332877</v>
+        <v>0.03019889178522361</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -915,13 +915,13 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.6344156555459544</v>
+        <v>0.6230694836303133</v>
       </c>
       <c r="D38">
         <v>0.3056676629176515</v>
       </c>
       <c r="F38">
-        <v>0.05852148688340063</v>
+        <v>0.06005757251460617</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -929,13 +929,13 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.6411943443225867</v>
+        <v>0.6419750981866919</v>
       </c>
       <c r="D39">
         <v>0.2991998748894956</v>
       </c>
       <c r="F39">
-        <v>0.05818731903673792</v>
+        <v>0.05340753176457413</v>
       </c>
     </row>
   </sheetData>
